--- a/output/flourish_municipios_total.xlsx
+++ b/output/flourish_municipios_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>ideologia</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>PSOL</t>
+  </si>
+  <si>
+    <t>PST</t>
   </si>
   <si>
     <t>PT</t>
@@ -491,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -505,148 +508,166 @@
         <v>0</v>
       </c>
       <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1">
         <v>2004</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>2008</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>2012</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>2016</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>23</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>24</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3">
+        <v>166</v>
+      </c>
+      <c r="D3">
         <v>308</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>133</v>
-      </c>
-      <c r="E3">
-        <v>124</v>
       </c>
       <c r="F3">
         <v>124</v>
       </c>
       <c r="G3">
+        <v>124</v>
+      </c>
+      <c r="H3">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5">
+        <v>1025</v>
+      </c>
+      <c r="D5">
         <v>788</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>494</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>281</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>269</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6">
+        <v>1255</v>
+      </c>
+      <c r="D6">
         <v>1059</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1197</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1018</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1051</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>774</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -657,13 +678,16 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -675,110 +699,125 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>13</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>40</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>54</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>81</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10">
+        <v>288</v>
+      </c>
+      <c r="D10">
         <v>307</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>353</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>306</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>332</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>26</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>13</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>16</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>38</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12">
+        <v>233</v>
+      </c>
+      <c r="D12">
         <v>382</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>385</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>273</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>300</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -790,87 +829,99 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
         <v>31</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>43</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>42</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>28</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>16</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>30</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
+        <v>618</v>
+      </c>
+      <c r="D16">
         <v>550</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>553</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>477</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>500</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>682</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -879,51 +930,57 @@
         <v>0</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>52</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>79</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>105</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19">
         <v>0</v>
       </c>
@@ -933,13 +990,16 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -951,179 +1011,203 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>50</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
         <v>37</v>
       </c>
-      <c r="C21">
-        <v>37</v>
-      </c>
-      <c r="D21">
+      <c r="E21">
         <v>17</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>23</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>18</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
         <v>12</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>16</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>9</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
+        <v>132</v>
+      </c>
+      <c r="D23">
         <v>175</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>312</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>440</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>408</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24">
         <v>26</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>58</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>82</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>87</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>494</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>537</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26">
+        <v>989</v>
+      </c>
+      <c r="D26">
         <v>870</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>790</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>699</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>805</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>512</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
         <v>25</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>15</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>24</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>30</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1132,16 +1216,19 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -1149,22 +1236,25 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>411</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1172,91 +1262,103 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <v>421</v>
+        <v>182</v>
       </c>
       <c r="D30">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E30">
-        <v>298</v>
+        <v>557</v>
       </c>
       <c r="F30">
-        <v>261</v>
+        <v>641</v>
       </c>
       <c r="G30">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>256</v>
+      </c>
+      <c r="H30">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>397</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>421</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>261</v>
+      </c>
+      <c r="H31">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E32">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="G32">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="G33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="H33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1273,9 +1375,38 @@
         <v>0</v>
       </c>
       <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>61</v>
       </c>
-      <c r="G34">
+      <c r="H35">
         <v>93</v>
       </c>
     </row>

--- a/output/flourish_municipios_total.xlsx
+++ b/output/flourish_municipios_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>ideologia</t>
   </si>
@@ -127,16 +127,10 @@
     <t>Direita</t>
   </si>
   <si>
-    <t>Centro Dem</t>
-  </si>
-  <si>
-    <t>Extinto</t>
+    <t>Centro</t>
   </si>
   <si>
     <t>Esquerda</t>
-  </si>
-  <si>
-    <t>Centrao</t>
   </si>
 </sst>
 </file>
@@ -540,7 +534,7 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>24</v>
@@ -566,13 +560,13 @@
         <v>308</v>
       </c>
       <c r="E3">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F3">
         <v>124</v>
       </c>
       <c r="G3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H3">
         <v>139</v>
@@ -618,13 +612,13 @@
         <v>788</v>
       </c>
       <c r="E5">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="F5">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G5">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H5">
         <v>459</v>
@@ -644,13 +638,13 @@
         <v>1059</v>
       </c>
       <c r="E6">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="F6">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="G6">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H6">
         <v>774</v>
@@ -661,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -713,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -722,13 +716,13 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9">
         <v>54</v>
       </c>
       <c r="G9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9">
         <v>46</v>
@@ -739,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>288</v>
@@ -748,13 +742,13 @@
         <v>307</v>
       </c>
       <c r="E10">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F10">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G10">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H10">
         <v>311</v>
@@ -765,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -774,13 +768,13 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>16</v>
       </c>
       <c r="G11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -800,13 +794,13 @@
         <v>382</v>
       </c>
       <c r="E12">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F12">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G12">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H12">
         <v>344</v>
@@ -817,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -843,7 +837,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -878,10 +872,10 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>30</v>
@@ -895,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>618</v>
@@ -904,10 +898,10 @@
         <v>550</v>
       </c>
       <c r="E16">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F16">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G16">
         <v>500</v>
@@ -947,7 +941,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -973,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -999,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1025,7 +1019,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -1060,7 +1054,7 @@
         <v>12</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22">
         <v>16</v>
@@ -1077,7 +1071,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>132</v>
@@ -1086,10 +1080,10 @@
         <v>175</v>
       </c>
       <c r="E23">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F23">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G23">
         <v>408</v>
@@ -1112,13 +1106,13 @@
         <v>26</v>
       </c>
       <c r="E24">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24">
         <v>82</v>
       </c>
       <c r="G24">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24">
         <v>116</v>
@@ -1141,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G25">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H25">
         <v>650</v>
@@ -1164,13 +1158,13 @@
         <v>870</v>
       </c>
       <c r="E26">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="F26">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="G26">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="H26">
         <v>512</v>
@@ -1193,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="F27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G27">
         <v>30</v>
@@ -1207,7 +1201,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1259,7 +1253,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>182</v>
@@ -1268,13 +1262,13 @@
         <v>411</v>
       </c>
       <c r="E30">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F30">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G30">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H30">
         <v>179</v>
@@ -1285,7 +1279,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>397</v>
@@ -1294,13 +1288,13 @@
         <v>421</v>
       </c>
       <c r="E31">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F31">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G31">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H31">
         <v>212</v>
@@ -1337,7 +1331,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>13</v>
@@ -1346,13 +1340,13 @@
         <v>56</v>
       </c>
       <c r="E33">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F33">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G33">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H33">
         <v>47</v>
@@ -1363,7 +1357,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1389,7 +1383,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>0</v>
